--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateRegisterMobile.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateRegisterMobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -90,12 +90,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random_register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_unregister</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+  </si>
+  <si>
+    <t>${RandomUtils.generateUserName()}</t>
   </si>
 </sst>
 </file>
@@ -448,7 +446,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateRegisterMobile.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateRegisterMobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>check_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,18 +67,6 @@
   </si>
   <si>
     <t>yy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sms_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1b0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -446,14 +430,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="6" max="7" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -476,13 +459,7 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -490,10 +467,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -502,16 +479,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateRegisterMobile.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateRegisterMobile.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -74,17 +78,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-  </si>
-  <si>
     <t>${RandomUtils.generateUserName()}</t>
+  </si>
+  <si>
+    <t>18516272944</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,19 +432,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,15 +469,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -500,9 +507,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
